--- a/resource/更新履歴.xlsx
+++ b/resource/更新履歴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\KeepTrackofDocUpdates\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89805A0B-4FC7-47C1-9E2E-B71D2FD3595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E53E8F-B9E9-4CF3-987B-37019E95DF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
